--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H2">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.137228899987592</v>
+        <v>0.21127</v>
       </c>
       <c r="N2">
-        <v>0.137228899987592</v>
+        <v>0.63381</v>
       </c>
       <c r="O2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="P2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="Q2">
-        <v>0.07730517038223933</v>
+        <v>0.12302505624</v>
       </c>
       <c r="R2">
-        <v>0.07730517038223933</v>
+        <v>1.10722550616</v>
       </c>
       <c r="S2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="T2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H3">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39780847327386</v>
+        <v>3.467027333333334</v>
       </c>
       <c r="N3">
-        <v>3.39780847327386</v>
+        <v>10.401082</v>
       </c>
       <c r="O3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="P3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="Q3">
-        <v>1.914087797660713</v>
+        <v>2.018891620528</v>
       </c>
       <c r="R3">
-        <v>1.914087797660713</v>
+        <v>18.170024584752</v>
       </c>
       <c r="S3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="T3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.563330103128635</v>
+        <v>0.5823119999999999</v>
       </c>
       <c r="H4">
-        <v>0.563330103128635</v>
+        <v>1.746936</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.68028016023443</v>
+        <v>4.881908</v>
       </c>
       <c r="N4">
-        <v>4.68028016023443</v>
+        <v>14.645724</v>
       </c>
       <c r="O4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="P4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="Q4">
-        <v>2.636542705335766</v>
+        <v>2.842793611296</v>
       </c>
       <c r="R4">
-        <v>2.636542705335766</v>
+        <v>25.585142501664</v>
       </c>
       <c r="S4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="T4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
     </row>
   </sheetData>
